--- a/output_normal_int.xlsx
+++ b/output_normal_int.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,50 +473,50 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>246.046</v>
+        <v>1431.995</v>
       </c>
       <c r="D2" t="n">
-        <v>170.139</v>
+        <v>859.375</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7.7</v>
+        <v>671.038</v>
       </c>
       <c r="D3" t="n">
-        <v>4.883</v>
+        <v>562.5</v>
       </c>
       <c r="E3" t="n">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>233.609</v>
+        <v>56.473</v>
       </c>
       <c r="D4" t="n">
-        <v>145.089</v>
+        <v>34.539</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -549,40 +549,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7.404</v>
+        <v>2260.705</v>
       </c>
       <c r="D5" t="n">
-        <v>6.25</v>
+        <v>1750</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>479.12</v>
+        <v>1098.79</v>
       </c>
       <c r="D6" t="n">
-        <v>281.25</v>
+        <v>890.625</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="7">
@@ -593,20 +593,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16.834</v>
+        <v>98.02800000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>10.184</v>
+        <v>72.917</v>
       </c>
       <c r="E7" t="n">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="8">
@@ -621,22 +621,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>467.239</v>
+        <v>3076.591</v>
       </c>
       <c r="D8" t="n">
-        <v>286.458</v>
+        <v>2281.25</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>2000000</v>
+        <v>11000000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -645,70 +645,70 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15.052</v>
+        <v>1558.13</v>
       </c>
       <c r="D9" t="n">
-        <v>8.507</v>
+        <v>1296.875</v>
       </c>
       <c r="E9" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>2000000</v>
+        <v>11000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>741.857</v>
+        <v>145.076</v>
       </c>
       <c r="D10" t="n">
-        <v>468.75</v>
+        <v>114.583</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>3000000</v>
+        <v>11000000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>24.899</v>
+        <v>3900.74</v>
       </c>
       <c r="D11" t="n">
-        <v>14.706</v>
+        <v>3015.625</v>
       </c>
       <c r="E11" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>3000000</v>
+        <v>14000000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>721.383</v>
+        <v>2021.524</v>
       </c>
       <c r="D12" t="n">
-        <v>531.25</v>
+        <v>1546.875</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>3000000</v>
+        <v>14000000</v>
       </c>
     </row>
     <row r="13">
@@ -741,16 +741,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20.87</v>
+        <v>386.153</v>
       </c>
       <c r="D13" t="n">
-        <v>12.674</v>
+        <v>110.795</v>
       </c>
       <c r="E13" t="n">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
-        <v>3000000</v>
+        <v>14000000</v>
       </c>
     </row>
     <row r="14">
@@ -761,50 +761,50 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>966.091</v>
+        <v>5255.512</v>
       </c>
       <c r="D14" t="n">
-        <v>562.5</v>
+        <v>1703.125</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>4000000</v>
+        <v>17000000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>37.282</v>
+        <v>2620.031</v>
       </c>
       <c r="D15" t="n">
-        <v>20.625</v>
+        <v>1218.75</v>
       </c>
       <c r="E15" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>4000000</v>
+        <v>17000000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -813,22 +813,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>945.033</v>
+        <v>288.122</v>
       </c>
       <c r="D16" t="n">
-        <v>625</v>
+        <v>135.417</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
-        <v>4000000</v>
+        <v>17000000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -837,40 +837,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>27.694</v>
+        <v>5896.314</v>
       </c>
       <c r="D17" t="n">
-        <v>18.159</v>
+        <v>3156.25</v>
       </c>
       <c r="E17" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>4000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1226.149</v>
+        <v>3050.632</v>
       </c>
       <c r="D18" t="n">
-        <v>796.875</v>
+        <v>1953.125</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="19">
@@ -881,20 +881,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>44.815</v>
+        <v>335.329</v>
       </c>
       <c r="D19" t="n">
-        <v>27.058</v>
+        <v>183.594</v>
       </c>
       <c r="E19" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="20">
@@ -909,22 +909,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1253.221</v>
+        <v>6653.569</v>
       </c>
       <c r="D20" t="n">
-        <v>625</v>
+        <v>4218.75</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>5000000</v>
+        <v>23000000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -933,70 +933,70 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>43.512</v>
+        <v>3481.59</v>
       </c>
       <c r="D21" t="n">
-        <v>21.763</v>
+        <v>1906.25</v>
       </c>
       <c r="E21" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>5000000</v>
+        <v>23000000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1540.915</v>
+        <v>410.535</v>
       </c>
       <c r="D22" t="n">
-        <v>765.625</v>
+        <v>195.312</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>6000000</v>
+        <v>23000000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>53.033</v>
+        <v>7693.053</v>
       </c>
       <c r="D23" t="n">
-        <v>30.79</v>
+        <v>4031.25</v>
       </c>
       <c r="E23" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>6000000</v>
+        <v>26000000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1485.858</v>
+        <v>4007.159</v>
       </c>
       <c r="D24" t="n">
-        <v>968.75</v>
+        <v>2250</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>6000000</v>
+        <v>26000000</v>
       </c>
     </row>
     <row r="25">
@@ -1029,16 +1029,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>41.513</v>
+        <v>485.709</v>
       </c>
       <c r="D25" t="n">
-        <v>20.693</v>
+        <v>250</v>
       </c>
       <c r="E25" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>6000000</v>
+        <v>26000000</v>
       </c>
     </row>
     <row r="26">
@@ -1049,50 +1049,50 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1771.61</v>
+        <v>8567.071</v>
       </c>
       <c r="D26" t="n">
-        <v>937.5</v>
+        <v>4515.625</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>7000000</v>
+        <v>29000000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>63.639</v>
+        <v>4504.309</v>
       </c>
       <c r="D27" t="n">
-        <v>32.738</v>
+        <v>2531.25</v>
       </c>
       <c r="E27" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>7000000</v>
+        <v>29000000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1101,22 +1101,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1658.874</v>
+        <v>561.085</v>
       </c>
       <c r="D28" t="n">
-        <v>781.25</v>
+        <v>276.042</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
-        <v>7000000</v>
+        <v>29000000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1125,40 +1125,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>50.919</v>
+        <v>9574.109</v>
       </c>
       <c r="D29" t="n">
-        <v>25</v>
+        <v>5343.75</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>7000000</v>
+        <v>32000000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2073.228</v>
+        <v>5002.732</v>
       </c>
       <c r="D30" t="n">
-        <v>828.125</v>
+        <v>2562.5</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>8000000</v>
+        <v>32000000</v>
       </c>
     </row>
     <row r="31">
@@ -1169,20 +1169,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>75.38800000000001</v>
+        <v>617.6799999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>40.365</v>
+        <v>328.125</v>
       </c>
       <c r="E31" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>8000000</v>
+        <v>32000000</v>
       </c>
     </row>
     <row r="32">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1921.214</v>
+        <v>10259.89</v>
       </c>
       <c r="D32" t="n">
-        <v>906.25</v>
+        <v>6296.875</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>8000000</v>
+        <v>35000000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1221,70 +1221,70 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>55.901</v>
+        <v>5575.227</v>
       </c>
       <c r="D33" t="n">
-        <v>32.552</v>
+        <v>3250</v>
       </c>
       <c r="E33" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>8000000</v>
+        <v>35000000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2241.406</v>
+        <v>698.641</v>
       </c>
       <c r="D34" t="n">
-        <v>1343.75</v>
+        <v>421.875</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>9000000</v>
+        <v>35000000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>81.87</v>
+        <v>11352.915</v>
       </c>
       <c r="D35" t="n">
-        <v>45.898</v>
+        <v>6609.375</v>
       </c>
       <c r="E35" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>9000000</v>
+        <v>38000000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2163.203</v>
+        <v>6040.74</v>
       </c>
       <c r="D36" t="n">
-        <v>1328.125</v>
+        <v>3421.875</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>9000000</v>
+        <v>38000000</v>
       </c>
     </row>
     <row r="37">
@@ -1317,16 +1317,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>65.066</v>
+        <v>820.48</v>
       </c>
       <c r="D37" t="n">
-        <v>38.651</v>
+        <v>414.062</v>
       </c>
       <c r="E37" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>9000000</v>
+        <v>38000000</v>
       </c>
     </row>
     <row r="38">
@@ -1337,50 +1337,50 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2495.527</v>
+        <v>12335.627</v>
       </c>
       <c r="D38" t="n">
-        <v>1546.875</v>
+        <v>7156.25</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>10000000</v>
+        <v>41000000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>93.081</v>
+        <v>6518.09</v>
       </c>
       <c r="D39" t="n">
-        <v>59.659</v>
+        <v>4078.125</v>
       </c>
       <c r="E39" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>10000000</v>
+        <v>41000000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1389,22 +1389,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2597.05</v>
+        <v>957.707</v>
       </c>
       <c r="D40" t="n">
-        <v>1125</v>
+        <v>625</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>10000000</v>
+        <v>41000000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1413,70 +1413,70 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>76.297</v>
+        <v>4.329</v>
       </c>
       <c r="D41" t="n">
-        <v>25</v>
+        <v>2.89</v>
       </c>
       <c r="E41" t="n">
-        <v>40</v>
+        <v>373</v>
       </c>
       <c r="F41" t="n">
-        <v>10000000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3101.162</v>
+        <v>0.12</v>
       </c>
       <c r="D42" t="n">
-        <v>968.75</v>
+        <v>0.062</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="F42" t="n">
-        <v>11000000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>107.842</v>
+        <v>154.65</v>
       </c>
       <c r="D43" t="n">
-        <v>48.713</v>
+        <v>73.864</v>
       </c>
       <c r="E43" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F43" t="n">
-        <v>11000000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1485,22 +1485,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2684.85</v>
+        <v>449.505</v>
       </c>
       <c r="D44" t="n">
-        <v>1359.375</v>
+        <v>234.375</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>11000000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>78.099</v>
+        <v>1.563</v>
       </c>
       <c r="D45" t="n">
-        <v>34.722</v>
+        <v>0.747</v>
       </c>
       <c r="E45" t="n">
-        <v>18</v>
+        <v>669</v>
       </c>
       <c r="F45" t="n">
-        <v>11000000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="46">
@@ -1529,20 +1529,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3073.891</v>
+        <v>9.295999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>1187.5</v>
+        <v>5.365</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="F46" t="n">
-        <v>12000000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="47">
@@ -1553,26 +1553,26 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>110.342</v>
+        <v>0.241</v>
       </c>
       <c r="D47" t="n">
-        <v>45.833</v>
+        <v>0.123</v>
       </c>
       <c r="E47" t="n">
-        <v>15</v>
+        <v>5600</v>
       </c>
       <c r="F47" t="n">
-        <v>12000000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1581,22 +1581,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3073.67</v>
+        <v>612.739</v>
       </c>
       <c r="D48" t="n">
-        <v>1109.375</v>
+        <v>265.625</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>12000000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1605,70 +1605,70 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>85.42100000000001</v>
+        <v>1786.669</v>
       </c>
       <c r="D49" t="n">
-        <v>31.25</v>
+        <v>1000</v>
       </c>
       <c r="E49" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>12000000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3333.246</v>
+        <v>3.527</v>
       </c>
       <c r="D50" t="n">
-        <v>1437.5</v>
+        <v>2.197</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="F50" t="n">
-        <v>13000000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>122.491</v>
+        <v>13.824</v>
       </c>
       <c r="D51" t="n">
-        <v>54.688</v>
+        <v>8.231</v>
       </c>
       <c r="E51" t="n">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="F51" t="n">
-        <v>13000000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1677,22 +1677,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3315.142</v>
+        <v>0.359</v>
       </c>
       <c r="D52" t="n">
-        <v>953.125</v>
+        <v>0.217</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>4978</v>
       </c>
       <c r="F52" t="n">
-        <v>13000000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1701,64 +1701,64 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>95.137</v>
+        <v>1428.945</v>
       </c>
       <c r="D53" t="n">
-        <v>51.042</v>
+        <v>718.75</v>
       </c>
       <c r="E53" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>13000000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3766.436</v>
+        <v>4067.409</v>
       </c>
       <c r="D54" t="n">
-        <v>1437.5</v>
+        <v>2187.5</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>14000000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>132.171</v>
+        <v>5.354</v>
       </c>
       <c r="D55" t="n">
-        <v>78.125</v>
+        <v>4.255</v>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="F55" t="n">
-        <v>14000000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="56">
@@ -1773,16 +1773,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3478.888</v>
+        <v>19.348</v>
       </c>
       <c r="D56" t="n">
-        <v>1468.75</v>
+        <v>11.607</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F56" t="n">
-        <v>14000000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="57">
@@ -1797,70 +1797,70 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>97.01900000000001</v>
+        <v>0.515</v>
       </c>
       <c r="D57" t="n">
-        <v>50.781</v>
+        <v>0.285</v>
       </c>
       <c r="E57" t="n">
-        <v>16</v>
+        <v>2358</v>
       </c>
       <c r="F57" t="n">
-        <v>14000000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3886.581</v>
+        <v>2412.334</v>
       </c>
       <c r="D58" t="n">
-        <v>1718.75</v>
+        <v>1750</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>15000000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>175.01</v>
+        <v>7238.403</v>
       </c>
       <c r="D59" t="n">
-        <v>74.65300000000001</v>
+        <v>4671.875</v>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>15000000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1869,22 +1869,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3813.916</v>
+        <v>7.612</v>
       </c>
       <c r="D60" t="n">
-        <v>1921.875</v>
+        <v>6.25</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F60" t="n">
-        <v>15000000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1893,70 +1893,70 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>107.501</v>
+        <v>23.381</v>
       </c>
       <c r="D61" t="n">
-        <v>50</v>
+        <v>17.334</v>
       </c>
       <c r="E61" t="n">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="F61" t="n">
-        <v>15000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4038.095</v>
+        <v>0.613</v>
       </c>
       <c r="D62" t="n">
-        <v>2046.875</v>
+        <v>0.401</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>1792</v>
       </c>
       <c r="F62" t="n">
-        <v>16000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>148.95</v>
+        <v>3830.163</v>
       </c>
       <c r="D63" t="n">
-        <v>65.625</v>
+        <v>2250</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>16000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1965,22 +1965,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3877.81</v>
+        <v>11619.5</v>
       </c>
       <c r="D64" t="n">
-        <v>1968.75</v>
+        <v>6609.375</v>
       </c>
       <c r="E64" t="n">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>16000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1989,16 +1989,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>119.568</v>
+        <v>10.244</v>
       </c>
       <c r="D65" t="n">
-        <v>52.557</v>
+        <v>4.688</v>
       </c>
       <c r="E65" t="n">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="F65" t="n">
-        <v>16000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="66">
@@ -2009,20 +2009,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4272.536</v>
+        <v>30.812</v>
       </c>
       <c r="D66" t="n">
-        <v>2046.875</v>
+        <v>18.75</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="F66" t="n">
-        <v>17000000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="67">
@@ -2033,26 +2033,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>168.917</v>
+        <v>0.761</v>
       </c>
       <c r="D67" t="n">
-        <v>68.75</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>1445</v>
       </c>
       <c r="F67" t="n">
-        <v>17000000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2061,22 +2061,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4138.301</v>
+        <v>5584.402</v>
       </c>
       <c r="D68" t="n">
-        <v>1921.875</v>
+        <v>3515.625</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>17000000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2085,70 +2085,70 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>120.972</v>
+        <v>16574.967</v>
       </c>
       <c r="D69" t="n">
-        <v>62.5</v>
+        <v>10203.125</v>
       </c>
       <c r="E69" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>17000000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4594.253</v>
+        <v>11.5</v>
       </c>
       <c r="D70" t="n">
-        <v>2375</v>
+        <v>8.65</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="F70" t="n">
-        <v>18000000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>169.759</v>
+        <v>32.834</v>
       </c>
       <c r="D71" t="n">
-        <v>73.31699999999999</v>
+        <v>22.949</v>
       </c>
       <c r="E71" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F71" t="n">
-        <v>18000000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4478.277</v>
+        <v>0.878</v>
       </c>
       <c r="D72" t="n">
-        <v>2703.125</v>
+        <v>0.663</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>896</v>
       </c>
       <c r="F72" t="n">
-        <v>18000000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2181,64 +2181,64 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>125.255</v>
+        <v>7409.481</v>
       </c>
       <c r="D73" t="n">
-        <v>70.312</v>
+        <v>5671.875</v>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>18000000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4800.869</v>
+        <v>21900.204</v>
       </c>
       <c r="D74" t="n">
-        <v>2531.25</v>
+        <v>17312.5</v>
       </c>
       <c r="E74" t="n">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>19000000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>181.525</v>
+        <v>14.562</v>
       </c>
       <c r="D75" t="n">
-        <v>93.75</v>
+        <v>9.375</v>
       </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="F75" t="n">
-        <v>19000000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="76">
@@ -2253,16 +2253,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4656.607</v>
+        <v>37.925</v>
       </c>
       <c r="D76" t="n">
-        <v>2468.75</v>
+        <v>27.439</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F76" t="n">
-        <v>19000000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="77">
@@ -2277,70 +2277,70 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>133.326</v>
+        <v>1.005</v>
       </c>
       <c r="D77" t="n">
-        <v>68.182</v>
+        <v>0.711</v>
       </c>
       <c r="E77" t="n">
-        <v>11</v>
+        <v>1120</v>
       </c>
       <c r="F77" t="n">
-        <v>19000000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5042.33</v>
+        <v>9766.647999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>2984.375</v>
+        <v>5390.625</v>
       </c>
       <c r="E78" t="n">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>20000000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>int_normal</t>
+          <t>int_uniform</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>197.269</v>
+        <v>28677.978</v>
       </c>
       <c r="D79" t="n">
-        <v>105.903</v>
+        <v>18968.75</v>
       </c>
       <c r="E79" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>20000000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2349,40 +2349,3256 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4891.382</v>
+        <v>16.247</v>
       </c>
       <c r="D80" t="n">
-        <v>3031.25</v>
+        <v>11.998</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="F80" t="n">
-        <v>20000000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>43.256</v>
+      </c>
+      <c r="D81" t="n">
+        <v>25.625</v>
+      </c>
+      <c r="E81" t="n">
+        <v>25</v>
+      </c>
+      <c r="F81" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
           <t>CountingSort</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>int_uniform</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>144.532</v>
-      </c>
-      <c r="D81" t="n">
-        <v>71.875</v>
-      </c>
-      <c r="E81" t="n">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1.161</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1593</v>
+      </c>
+      <c r="F82" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>12171.583</v>
+      </c>
+      <c r="D83" t="n">
+        <v>8062.5</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>36650.972</v>
+      </c>
+      <c r="D84" t="n">
+        <v>23109.375</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>18.429</v>
+      </c>
+      <c r="D85" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="E85" t="n">
+        <v>50</v>
+      </c>
+      <c r="F85" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>47.674</v>
+      </c>
+      <c r="D86" t="n">
+        <v>36.184</v>
+      </c>
+      <c r="E86" t="n">
+        <v>19</v>
+      </c>
+      <c r="F86" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="E87" t="n">
+        <v>747</v>
+      </c>
+      <c r="F87" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>15261.334</v>
+      </c>
+      <c r="D88" t="n">
+        <v>10671.875</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>45023.994</v>
+      </c>
+      <c r="D89" t="n">
+        <v>32734.375</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>20.289</v>
+      </c>
+      <c r="D90" t="n">
+        <v>15.346</v>
+      </c>
+      <c r="E90" t="n">
+        <v>56</v>
+      </c>
+      <c r="F90" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>52.662</v>
+      </c>
+      <c r="D91" t="n">
+        <v>40.296</v>
+      </c>
+      <c r="E91" t="n">
+        <v>19</v>
+      </c>
+      <c r="F91" t="n">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1.387</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.151</v>
+      </c>
+      <c r="E92" t="n">
+        <v>896</v>
+      </c>
+      <c r="F92" t="n">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>18570.041</v>
+      </c>
+      <c r="D93" t="n">
+        <v>11312.5</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>54440.225</v>
+      </c>
+      <c r="D94" t="n">
+        <v>36187.5</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>22.444</v>
+      </c>
+      <c r="D95" t="n">
+        <v>17.334</v>
+      </c>
+      <c r="E95" t="n">
+        <v>64</v>
+      </c>
+      <c r="F95" t="n">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>57.593</v>
+      </c>
+      <c r="D96" t="n">
+        <v>35.714</v>
+      </c>
+      <c r="E96" t="n">
+        <v>21</v>
+      </c>
+      <c r="F96" t="n">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1.581</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.196</v>
+      </c>
+      <c r="E97" t="n">
+        <v>640</v>
+      </c>
+      <c r="F97" t="n">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>21760.848</v>
+      </c>
+      <c r="D98" t="n">
+        <v>13734.375</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>64844.856</v>
+      </c>
+      <c r="D99" t="n">
+        <v>43031.25</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>25.642</v>
+      </c>
+      <c r="D100" t="n">
+        <v>16.892</v>
+      </c>
+      <c r="E100" t="n">
+        <v>37</v>
+      </c>
+      <c r="F100" t="n">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>64.072</v>
+      </c>
+      <c r="D101" t="n">
+        <v>35.511</v>
+      </c>
+      <c r="E101" t="n">
+        <v>22</v>
+      </c>
+      <c r="F101" t="n">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>2.008</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F102" t="n">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>25585.284</v>
+      </c>
+      <c r="D103" t="n">
+        <v>19609.375</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="n">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>76127.546</v>
+      </c>
+      <c r="D104" t="n">
+        <v>55046.875</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" t="n">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>27.227</v>
+      </c>
+      <c r="D105" t="n">
+        <v>16.741</v>
+      </c>
+      <c r="E105" t="n">
+        <v>56</v>
+      </c>
+      <c r="F105" t="n">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>67.965</v>
+      </c>
+      <c r="D106" t="n">
+        <v>34.926</v>
+      </c>
+      <c r="E106" t="n">
+        <v>17</v>
+      </c>
+      <c r="F106" t="n">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>2.079</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.479</v>
+      </c>
+      <c r="E107" t="n">
+        <v>560</v>
+      </c>
+      <c r="F107" t="n">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>29410.329</v>
+      </c>
+      <c r="D108" t="n">
+        <v>19906.25</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>87716.349</v>
+      </c>
+      <c r="D109" t="n">
+        <v>60187.5</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" t="n">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>29.495</v>
+      </c>
+      <c r="D110" t="n">
+        <v>17.983</v>
+      </c>
+      <c r="E110" t="n">
+        <v>53</v>
+      </c>
+      <c r="F110" t="n">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>72.48699999999999</v>
+      </c>
+      <c r="D111" t="n">
+        <v>43.945</v>
+      </c>
+      <c r="E111" t="n">
+        <v>16</v>
+      </c>
+      <c r="F111" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>2.234</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.221</v>
+      </c>
+      <c r="E112" t="n">
+        <v>448</v>
+      </c>
+      <c r="F112" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>34147.758</v>
+      </c>
+      <c r="D113" t="n">
+        <v>23218.75</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>100911.702</v>
+      </c>
+      <c r="D114" t="n">
+        <v>66890.625</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>31.509</v>
+      </c>
+      <c r="D115" t="n">
+        <v>20.833</v>
+      </c>
+      <c r="E115" t="n">
+        <v>30</v>
+      </c>
+      <c r="F115" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="E116" t="n">
+        <v>5600</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E117" t="n">
+        <v>194783</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2635</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1338</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E120" t="n">
+        <v>29867</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2358</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="E122" t="n">
+        <v>74667</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1.608</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.025</v>
+      </c>
+      <c r="E123" t="n">
+        <v>640</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>4.469</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="E124" t="n">
+        <v>320</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="E125" t="n">
+        <v>8960</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2133</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E127" t="n">
+        <v>56000</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>3.491</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.262</v>
+      </c>
+      <c r="E128" t="n">
+        <v>373</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>9.938000000000001</v>
+      </c>
+      <c r="D129" t="n">
+        <v>7.031</v>
+      </c>
+      <c r="E129" t="n">
+        <v>100</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="E130" t="n">
+        <v>7690</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E132" t="n">
+        <v>49778</v>
+      </c>
+      <c r="F132" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>6.043</v>
+      </c>
+      <c r="D133" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="E133" t="n">
+        <v>213</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>18.193</v>
+      </c>
+      <c r="D134" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E134" t="n">
+        <v>50</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3733</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="E136" t="n">
+        <v>747</v>
+      </c>
+      <c r="F136" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E137" t="n">
+        <v>29867</v>
+      </c>
+      <c r="F137" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>9.695</v>
+      </c>
+      <c r="D138" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="E138" t="n">
+        <v>90</v>
+      </c>
+      <c r="F138" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>27.809</v>
+      </c>
+      <c r="D139" t="n">
+        <v>21.562</v>
+      </c>
+      <c r="E139" t="n">
+        <v>50</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="E140" t="n">
+        <v>5310</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1.241</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1120</v>
+      </c>
+      <c r="F141" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="E142" t="n">
+        <v>26353</v>
+      </c>
+      <c r="F142" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D143" t="n">
+        <v>8.958</v>
+      </c>
+      <c r="E143" t="n">
+        <v>75</v>
+      </c>
+      <c r="F143" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>40.614</v>
+      </c>
+      <c r="D144" t="n">
+        <v>30.599</v>
+      </c>
+      <c r="E144" t="n">
+        <v>24</v>
+      </c>
+      <c r="F144" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2358</v>
+      </c>
+      <c r="F145" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1.454</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="E146" t="n">
+        <v>747</v>
+      </c>
+      <c r="F146" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E147" t="n">
+        <v>23579</v>
+      </c>
+      <c r="F147" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>18.448</v>
+      </c>
+      <c r="D148" t="n">
+        <v>12.812</v>
+      </c>
+      <c r="E148" t="n">
+        <v>50</v>
+      </c>
+      <c r="F148" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>54.906</v>
+      </c>
+      <c r="D149" t="n">
+        <v>35.714</v>
+      </c>
+      <c r="E149" t="n">
+        <v>21</v>
+      </c>
+      <c r="F149" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2133</v>
+      </c>
+      <c r="F150" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>1.626</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.318</v>
+      </c>
+      <c r="E151" t="n">
+        <v>498</v>
+      </c>
+      <c r="F151" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="E152" t="n">
+        <v>20364</v>
+      </c>
+      <c r="F152" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>24.243</v>
+      </c>
+      <c r="D153" t="n">
+        <v>21.973</v>
+      </c>
+      <c r="E153" t="n">
+        <v>64</v>
+      </c>
+      <c r="F153" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>71.10599999999999</v>
+      </c>
+      <c r="D154" t="n">
+        <v>54.688</v>
+      </c>
+      <c r="E154" t="n">
         <v>10</v>
       </c>
-      <c r="F81" t="n">
-        <v>20000000</v>
+      <c r="F154" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1792</v>
+      </c>
+      <c r="F155" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1120</v>
+      </c>
+      <c r="F156" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="E157" t="n">
+        <v>17920</v>
+      </c>
+      <c r="F157" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>31.005</v>
+      </c>
+      <c r="D158" t="n">
+        <v>23.897</v>
+      </c>
+      <c r="E158" t="n">
+        <v>34</v>
+      </c>
+      <c r="F158" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>90.16800000000001</v>
+      </c>
+      <c r="D159" t="n">
+        <v>64.236</v>
+      </c>
+      <c r="E159" t="n">
+        <v>9</v>
+      </c>
+      <c r="F159" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1659</v>
+      </c>
+      <c r="F160" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>2.094</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="E161" t="n">
+        <v>448</v>
+      </c>
+      <c r="F161" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="E162" t="n">
+        <v>16000</v>
+      </c>
+      <c r="F162" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>37.531</v>
+      </c>
+      <c r="D163" t="n">
+        <v>28.409</v>
+      </c>
+      <c r="E163" t="n">
+        <v>22</v>
+      </c>
+      <c r="F163" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>110.024</v>
+      </c>
+      <c r="D164" t="n">
+        <v>85.227</v>
+      </c>
+      <c r="E164" t="n">
+        <v>11</v>
+      </c>
+      <c r="F164" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F165" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="E166" t="n">
+        <v>89600</v>
+      </c>
+      <c r="F166" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1866667</v>
+      </c>
+      <c r="F167" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E168" t="n">
+        <v>344615</v>
+      </c>
+      <c r="F168" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E169" t="n">
+        <v>280000</v>
+      </c>
+      <c r="F169" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E170" t="n">
+        <v>497778</v>
+      </c>
+      <c r="F170" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E171" t="n">
+        <v>56000</v>
+      </c>
+      <c r="F171" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F172" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E173" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F173" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E174" t="n">
+        <v>64000</v>
+      </c>
+      <c r="F174" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E175" t="n">
+        <v>248889</v>
+      </c>
+      <c r="F175" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E176" t="n">
+        <v>49778</v>
+      </c>
+      <c r="F176" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1120000</v>
+      </c>
+      <c r="F177" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="E178" t="n">
+        <v>56000</v>
+      </c>
+      <c r="F178" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="E179" t="n">
+        <v>34462</v>
+      </c>
+      <c r="F179" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E180" t="n">
+        <v>154483</v>
+      </c>
+      <c r="F180" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="E181" t="n">
+        <v>26353</v>
+      </c>
+      <c r="F181" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E182" t="n">
+        <v>896000</v>
+      </c>
+      <c r="F182" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E183" t="n">
+        <v>49778</v>
+      </c>
+      <c r="F183" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="E184" t="n">
+        <v>19478</v>
+      </c>
+      <c r="F184" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E185" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F185" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="E186" t="n">
+        <v>19478</v>
+      </c>
+      <c r="F186" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E187" t="n">
+        <v>746667</v>
+      </c>
+      <c r="F187" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="E188" t="n">
+        <v>29867</v>
+      </c>
+      <c r="F188" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E189" t="n">
+        <v>11200</v>
+      </c>
+      <c r="F189" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="E190" t="n">
+        <v>74667</v>
+      </c>
+      <c r="F190" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="E191" t="n">
+        <v>31221</v>
+      </c>
+      <c r="F191" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E192" t="n">
+        <v>448000</v>
+      </c>
+      <c r="F192" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E193" t="n">
+        <v>24889</v>
+      </c>
+      <c r="F193" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="E194" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F194" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="E195" t="n">
+        <v>74667</v>
+      </c>
+      <c r="F195" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="E196" t="n">
+        <v>11200</v>
+      </c>
+      <c r="F196" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E197" t="n">
+        <v>373333</v>
+      </c>
+      <c r="F197" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E198" t="n">
+        <v>14933</v>
+      </c>
+      <c r="F198" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="E199" t="n">
+        <v>7467</v>
+      </c>
+      <c r="F199" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E200" t="n">
+        <v>56000</v>
+      </c>
+      <c r="F200" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="E201" t="n">
+        <v>15448</v>
+      </c>
+      <c r="F201" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E202" t="n">
+        <v>407273</v>
+      </c>
+      <c r="F202" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="E203" t="n">
+        <v>16056</v>
+      </c>
+      <c r="F203" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="E204" t="n">
+        <v>11200</v>
+      </c>
+      <c r="F204" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E205" t="n">
+        <v>74667</v>
+      </c>
+      <c r="F205" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="E206" t="n">
+        <v>8960</v>
+      </c>
+      <c r="F206" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E207" t="n">
+        <v>248889</v>
+      </c>
+      <c r="F207" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="E208" t="n">
+        <v>11151</v>
+      </c>
+      <c r="F208" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="E209" t="n">
+        <v>4978</v>
+      </c>
+      <c r="F209" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E210" t="n">
+        <v>37333</v>
+      </c>
+      <c r="F210" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="E211" t="n">
+        <v>8960</v>
+      </c>
+      <c r="F211" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E212" t="n">
+        <v>373333</v>
+      </c>
+      <c r="F212" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="E213" t="n">
+        <v>6400</v>
+      </c>
+      <c r="F213" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="E214" t="n">
+        <v>3200</v>
+      </c>
+      <c r="F214" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E215" t="n">
+        <v>37333</v>
+      </c>
+      <c r="F215" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/output_normal_int.xlsx
+++ b/output_normal_int.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F215"/>
+  <dimension ref="A1:F250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1431.995</v>
+        <v>1432.37</v>
       </c>
       <c r="D2" t="n">
-        <v>859.375</v>
+        <v>671.875</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -501,13 +501,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>671.038</v>
+        <v>788.942</v>
       </c>
       <c r="D3" t="n">
-        <v>562.5</v>
+        <v>304.688</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>5000000</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>56.473</v>
+        <v>61.619</v>
       </c>
       <c r="D4" t="n">
-        <v>34.539</v>
+        <v>25.67</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F4" t="n">
         <v>5000000</v>
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2260.705</v>
+        <v>2302.906</v>
       </c>
       <c r="D5" t="n">
-        <v>1750</v>
+        <v>1109.375</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1098.79</v>
+        <v>1268.439</v>
       </c>
       <c r="D6" t="n">
-        <v>890.625</v>
+        <v>578.125</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>98.02800000000001</v>
+        <v>109.824</v>
       </c>
       <c r="D7" t="n">
-        <v>72.917</v>
+        <v>52.557</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F7" t="n">
         <v>8000000</v>
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3076.591</v>
+        <v>3305.365</v>
       </c>
       <c r="D8" t="n">
-        <v>2281.25</v>
+        <v>1437.5</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1558.13</v>
+        <v>1823.59</v>
       </c>
       <c r="D9" t="n">
-        <v>1296.875</v>
+        <v>843.75</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>145.076</v>
+        <v>154.31</v>
       </c>
       <c r="D10" t="n">
-        <v>114.583</v>
+        <v>85.938</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
         <v>11000000</v>
@@ -693,10 +693,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3900.74</v>
+        <v>4047.885</v>
       </c>
       <c r="D11" t="n">
-        <v>3015.625</v>
+        <v>2125</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2021.524</v>
+        <v>2404.509</v>
       </c>
       <c r="D12" t="n">
-        <v>1546.875</v>
+        <v>1250</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -741,13 +741,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>386.153</v>
+        <v>211.046</v>
       </c>
       <c r="D13" t="n">
-        <v>110.795</v>
+        <v>98.958</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
         <v>14000000</v>
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5255.512</v>
+        <v>4971.77</v>
       </c>
       <c r="D14" t="n">
-        <v>1703.125</v>
+        <v>2609.375</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -789,10 +789,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2620.031</v>
+        <v>3008.143</v>
       </c>
       <c r="D15" t="n">
-        <v>1218.75</v>
+        <v>1406.25</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>288.122</v>
+        <v>249.183</v>
       </c>
       <c r="D16" t="n">
-        <v>135.417</v>
+        <v>140.625</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
         <v>17000000</v>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5896.314</v>
+        <v>5841.569</v>
       </c>
       <c r="D17" t="n">
-        <v>3156.25</v>
+        <v>3328.125</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3050.632</v>
+        <v>3459.959</v>
       </c>
       <c r="D18" t="n">
-        <v>1953.125</v>
+        <v>1812.5</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -885,10 +885,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>335.329</v>
+        <v>303.315</v>
       </c>
       <c r="D19" t="n">
-        <v>183.594</v>
+        <v>253.906</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -909,10 +909,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6653.569</v>
+        <v>6893.137</v>
       </c>
       <c r="D20" t="n">
-        <v>4218.75</v>
+        <v>3500</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3481.59</v>
+        <v>4051.785</v>
       </c>
       <c r="D21" t="n">
-        <v>1906.25</v>
+        <v>1671.875</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -957,13 +957,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>410.535</v>
+        <v>391.517</v>
       </c>
       <c r="D22" t="n">
-        <v>195.312</v>
+        <v>213.542</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>23000000</v>
@@ -981,10 +981,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7693.053</v>
+        <v>7646.533</v>
       </c>
       <c r="D23" t="n">
-        <v>4031.25</v>
+        <v>4421.875</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4007.159</v>
+        <v>4406.369</v>
       </c>
       <c r="D24" t="n">
-        <v>2250</v>
+        <v>2703.125</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1029,13 +1029,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>485.709</v>
+        <v>428.184</v>
       </c>
       <c r="D25" t="n">
-        <v>250</v>
+        <v>203.125</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>26000000</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>8567.071</v>
+        <v>8705.145</v>
       </c>
       <c r="D26" t="n">
-        <v>4515.625</v>
+        <v>4578.125</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4504.309</v>
+        <v>5036.293</v>
       </c>
       <c r="D27" t="n">
-        <v>2531.25</v>
+        <v>2859.375</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>561.085</v>
+        <v>513.8</v>
       </c>
       <c r="D28" t="n">
-        <v>276.042</v>
+        <v>296.875</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>29000000</v>
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9574.109</v>
+        <v>9425.341</v>
       </c>
       <c r="D29" t="n">
-        <v>5343.75</v>
+        <v>4781.25</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5002.732</v>
+        <v>5662.809</v>
       </c>
       <c r="D30" t="n">
-        <v>2562.5</v>
+        <v>2546.875</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>617.6799999999999</v>
+        <v>612.463</v>
       </c>
       <c r="D31" t="n">
-        <v>328.125</v>
+        <v>398.438</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10259.89</v>
+        <v>10432.139</v>
       </c>
       <c r="D32" t="n">
-        <v>6296.875</v>
+        <v>5984.375</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -1221,10 +1221,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5575.227</v>
+        <v>6154.978</v>
       </c>
       <c r="D33" t="n">
-        <v>3250</v>
+        <v>3890.625</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -1245,10 +1245,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>698.641</v>
+        <v>711.2859999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>421.875</v>
+        <v>359.375</v>
       </c>
       <c r="E34" t="n">
         <v>2</v>
@@ -1269,10 +1269,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>11352.915</v>
+        <v>11532.659</v>
       </c>
       <c r="D35" t="n">
-        <v>6609.375</v>
+        <v>6640.625</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6040.74</v>
+        <v>6826.062</v>
       </c>
       <c r="D36" t="n">
-        <v>3421.875</v>
+        <v>3750</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -1317,13 +1317,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>820.48</v>
+        <v>743.648</v>
       </c>
       <c r="D37" t="n">
-        <v>414.062</v>
+        <v>515.625</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>38000000</v>
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>12335.627</v>
+        <v>12184.651</v>
       </c>
       <c r="D38" t="n">
-        <v>7156.25</v>
+        <v>7500</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -1365,10 +1365,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6518.09</v>
+        <v>7293.602</v>
       </c>
       <c r="D39" t="n">
-        <v>4078.125</v>
+        <v>3984.375</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -1389,13 +1389,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>957.707</v>
+        <v>993.5599999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>625</v>
+        <v>531.25</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>41000000</v>
@@ -1404,7 +1404,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1413,13 +1413,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4.329</v>
+        <v>22.428</v>
       </c>
       <c r="D41" t="n">
-        <v>2.89</v>
+        <v>11.719</v>
       </c>
       <c r="E41" t="n">
-        <v>373</v>
+        <v>64</v>
       </c>
       <c r="F41" t="n">
         <v>20000</v>
@@ -1428,7 +1428,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1437,13 +1437,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.12</v>
+        <v>4.36</v>
       </c>
       <c r="D42" t="n">
-        <v>0.062</v>
+        <v>2.832</v>
       </c>
       <c r="E42" t="n">
-        <v>10000</v>
+        <v>320</v>
       </c>
       <c r="F42" t="n">
         <v>20000</v>
@@ -1452,7 +1452,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1461,13 +1461,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>154.65</v>
+        <v>0.119</v>
       </c>
       <c r="D43" t="n">
-        <v>73.864</v>
+        <v>0.066</v>
       </c>
       <c r="E43" t="n">
-        <v>11</v>
+        <v>10000</v>
       </c>
       <c r="F43" t="n">
         <v>20000</v>
@@ -1476,7 +1476,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1485,13 +1485,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>449.505</v>
+        <v>52.952</v>
       </c>
       <c r="D44" t="n">
-        <v>234.375</v>
+        <v>33.203</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F44" t="n">
         <v>20000</v>
@@ -1500,7 +1500,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1509,13 +1509,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.563</v>
+        <v>496.538</v>
       </c>
       <c r="D45" t="n">
-        <v>0.747</v>
+        <v>234.375</v>
       </c>
       <c r="E45" t="n">
-        <v>669</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
         <v>20000</v>
@@ -1524,7 +1524,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1533,22 +1533,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>9.295999999999999</v>
+        <v>1.916</v>
       </c>
       <c r="D46" t="n">
-        <v>5.365</v>
+        <v>1.283</v>
       </c>
       <c r="E46" t="n">
-        <v>166</v>
+        <v>560</v>
       </c>
       <c r="F46" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1557,13 +1557,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.241</v>
+        <v>64.48</v>
       </c>
       <c r="D47" t="n">
-        <v>0.123</v>
+        <v>33.654</v>
       </c>
       <c r="E47" t="n">
-        <v>5600</v>
+        <v>26</v>
       </c>
       <c r="F47" t="n">
         <v>40000</v>
@@ -1572,7 +1572,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1581,13 +1581,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>612.739</v>
+        <v>9.18</v>
       </c>
       <c r="D48" t="n">
-        <v>265.625</v>
+        <v>4.424</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="F48" t="n">
         <v>40000</v>
@@ -1596,7 +1596,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1605,13 +1605,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1786.669</v>
+        <v>0.242</v>
       </c>
       <c r="D49" t="n">
-        <v>1000</v>
+        <v>0.126</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>4978</v>
       </c>
       <c r="F49" t="n">
         <v>40000</v>
@@ -1620,7 +1620,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1629,13 +1629,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3.527</v>
+        <v>210.634</v>
       </c>
       <c r="D50" t="n">
-        <v>2.197</v>
+        <v>117.188</v>
       </c>
       <c r="E50" t="n">
-        <v>320</v>
+        <v>6</v>
       </c>
       <c r="F50" t="n">
         <v>40000</v>
@@ -1644,7 +1644,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1653,22 +1653,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>13.824</v>
+        <v>1770.022</v>
       </c>
       <c r="D51" t="n">
-        <v>8.231</v>
+        <v>1031.25</v>
       </c>
       <c r="E51" t="n">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1677,22 +1677,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.359</v>
+        <v>4.134</v>
       </c>
       <c r="D52" t="n">
-        <v>0.217</v>
+        <v>2.352</v>
       </c>
       <c r="E52" t="n">
-        <v>4978</v>
+        <v>299</v>
       </c>
       <c r="F52" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1701,13 +1701,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1428.945</v>
+        <v>113.573</v>
       </c>
       <c r="D53" t="n">
-        <v>718.75</v>
+        <v>50</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F53" t="n">
         <v>60000</v>
@@ -1716,7 +1716,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1725,13 +1725,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4067.409</v>
+        <v>14.003</v>
       </c>
       <c r="D54" t="n">
-        <v>2187.5</v>
+        <v>6.944</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="F54" t="n">
         <v>60000</v>
@@ -1740,7 +1740,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1749,13 +1749,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5.354</v>
+        <v>0.373</v>
       </c>
       <c r="D55" t="n">
-        <v>4.255</v>
+        <v>0.181</v>
       </c>
       <c r="E55" t="n">
-        <v>224</v>
+        <v>3446</v>
       </c>
       <c r="F55" t="n">
         <v>60000</v>
@@ -1764,7 +1764,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1773,22 +1773,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>19.348</v>
+        <v>463.204</v>
       </c>
       <c r="D56" t="n">
-        <v>11.607</v>
+        <v>273.438</v>
       </c>
       <c r="E56" t="n">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>80000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1797,22 +1797,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.515</v>
+        <v>3967.948</v>
       </c>
       <c r="D57" t="n">
-        <v>0.285</v>
+        <v>1890.625</v>
       </c>
       <c r="E57" t="n">
-        <v>2358</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>80000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1821,22 +1821,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2412.334</v>
+        <v>6.471</v>
       </c>
       <c r="D58" t="n">
-        <v>1750</v>
+        <v>4.327</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="F58" t="n">
-        <v>80000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1845,13 +1845,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>7238.403</v>
+        <v>170.457</v>
       </c>
       <c r="D59" t="n">
-        <v>4671.875</v>
+        <v>91.146</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F59" t="n">
         <v>80000</v>
@@ -1860,7 +1860,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1869,13 +1869,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>7.612</v>
+        <v>18.778</v>
       </c>
       <c r="D60" t="n">
-        <v>6.25</v>
+        <v>14.101</v>
       </c>
       <c r="E60" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="F60" t="n">
         <v>80000</v>
@@ -1884,7 +1884,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1893,22 +1893,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>23.381</v>
+        <v>0.48</v>
       </c>
       <c r="D61" t="n">
-        <v>17.334</v>
+        <v>0.271</v>
       </c>
       <c r="E61" t="n">
-        <v>64</v>
+        <v>2133</v>
       </c>
       <c r="F61" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1917,22 +1917,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.613</v>
+        <v>819.873</v>
       </c>
       <c r="D62" t="n">
-        <v>0.401</v>
+        <v>593.75</v>
       </c>
       <c r="E62" t="n">
-        <v>1792</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1941,22 +1941,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3830.163</v>
+        <v>6871.655</v>
       </c>
       <c r="D63" t="n">
-        <v>2250</v>
+        <v>3562.5</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1965,22 +1965,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>11619.5</v>
+        <v>8.968</v>
       </c>
       <c r="D64" t="n">
-        <v>6609.375</v>
+        <v>5</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F64" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>10.244</v>
+        <v>235.123</v>
       </c>
       <c r="D65" t="n">
-        <v>4.688</v>
+        <v>136.161</v>
       </c>
       <c r="E65" t="n">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="F65" t="n">
         <v>100000</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>30.812</v>
+        <v>23.582</v>
       </c>
       <c r="D66" t="n">
-        <v>18.75</v>
+        <v>13.438</v>
       </c>
       <c r="E66" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F66" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="67">
@@ -2037,16 +2037,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.761</v>
+        <v>0.597</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.353</v>
       </c>
       <c r="E67" t="n">
-        <v>1445</v>
+        <v>2036</v>
       </c>
       <c r="F67" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="68">
@@ -2061,16 +2061,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5584.402</v>
+        <v>1288.163</v>
       </c>
       <c r="D68" t="n">
-        <v>3515.625</v>
+        <v>812.5</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="69">
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>16574.967</v>
+        <v>10836.407</v>
       </c>
       <c r="D69" t="n">
-        <v>10203.125</v>
+        <v>5546.875</v>
       </c>
       <c r="E69" t="n">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="70">
@@ -2109,22 +2109,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>11.5</v>
+        <v>11.388</v>
       </c>
       <c r="D70" t="n">
-        <v>8.65</v>
+        <v>5.156</v>
       </c>
       <c r="E70" t="n">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F70" t="n">
-        <v>120000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2133,22 +2133,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>32.834</v>
+        <v>305.016</v>
       </c>
       <c r="D71" t="n">
-        <v>22.949</v>
+        <v>195.312</v>
       </c>
       <c r="E71" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F71" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.878</v>
+        <v>28.663</v>
       </c>
       <c r="D72" t="n">
-        <v>0.663</v>
+        <v>17.361</v>
       </c>
       <c r="E72" t="n">
-        <v>896</v>
+        <v>45</v>
       </c>
       <c r="F72" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2181,22 +2181,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7409.481</v>
+        <v>0.733</v>
       </c>
       <c r="D73" t="n">
-        <v>5671.875</v>
+        <v>0.401</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>1792</v>
       </c>
       <c r="F73" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2205,22 +2205,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>21900.204</v>
+        <v>1831.684</v>
       </c>
       <c r="D74" t="n">
-        <v>17312.5</v>
+        <v>1046.875</v>
       </c>
       <c r="E74" t="n">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2229,22 +2229,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>14.562</v>
+        <v>15689.702</v>
       </c>
       <c r="D75" t="n">
-        <v>9.375</v>
+        <v>9500</v>
       </c>
       <c r="E75" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>140000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2253,22 +2253,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>37.925</v>
+        <v>14.768</v>
       </c>
       <c r="D76" t="n">
-        <v>27.439</v>
+        <v>5.781</v>
       </c>
       <c r="E76" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="F76" t="n">
-        <v>160000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2277,22 +2277,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1.005</v>
+        <v>419.936</v>
       </c>
       <c r="D77" t="n">
-        <v>0.711</v>
+        <v>218.75</v>
       </c>
       <c r="E77" t="n">
-        <v>1120</v>
+        <v>4</v>
       </c>
       <c r="F77" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2301,22 +2301,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>9766.647999999999</v>
+        <v>35.775</v>
       </c>
       <c r="D78" t="n">
-        <v>5390.625</v>
+        <v>15.278</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="F78" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2325,22 +2325,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>28677.978</v>
+        <v>0.928</v>
       </c>
       <c r="D79" t="n">
-        <v>18968.75</v>
+        <v>0.377</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>1948</v>
       </c>
       <c r="F79" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2349,22 +2349,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>16.247</v>
+        <v>2722.964</v>
       </c>
       <c r="D80" t="n">
-        <v>11.998</v>
+        <v>1125</v>
       </c>
       <c r="E80" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>160000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2373,22 +2373,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>43.256</v>
+        <v>21393.467</v>
       </c>
       <c r="D81" t="n">
-        <v>25.625</v>
+        <v>13843.75</v>
       </c>
       <c r="E81" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2397,22 +2397,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1.161</v>
+        <v>16.12</v>
       </c>
       <c r="D82" t="n">
-        <v>0.794</v>
+        <v>13.889</v>
       </c>
       <c r="E82" t="n">
-        <v>1593</v>
+        <v>45</v>
       </c>
       <c r="F82" t="n">
-        <v>180000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2421,22 +2421,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>12171.583</v>
+        <v>475.744</v>
       </c>
       <c r="D83" t="n">
-        <v>8062.5</v>
+        <v>328.125</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2445,22 +2445,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>36650.972</v>
+        <v>37.784</v>
       </c>
       <c r="D84" t="n">
-        <v>23109.375</v>
+        <v>27.344</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F84" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2469,22 +2469,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>18.429</v>
+        <v>0.964</v>
       </c>
       <c r="D85" t="n">
-        <v>11.25</v>
+        <v>0.837</v>
       </c>
       <c r="E85" t="n">
-        <v>50</v>
+        <v>747</v>
       </c>
       <c r="F85" t="n">
-        <v>180000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2493,22 +2493,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>47.674</v>
+        <v>3195.98</v>
       </c>
       <c r="D86" t="n">
-        <v>36.184</v>
+        <v>2515.625</v>
       </c>
       <c r="E86" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2517,22 +2517,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1.27</v>
+        <v>27690.84</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8159999999999999</v>
+        <v>18984.375</v>
       </c>
       <c r="E87" t="n">
-        <v>747</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2541,22 +2541,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>15261.334</v>
+        <v>18.872</v>
       </c>
       <c r="D88" t="n">
-        <v>10671.875</v>
+        <v>11.875</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="F88" t="n">
-        <v>200000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2565,22 +2565,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>45023.994</v>
+        <v>558.877</v>
       </c>
       <c r="D89" t="n">
-        <v>32734.375</v>
+        <v>367.188</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>20.289</v>
+        <v>42.852</v>
       </c>
       <c r="D90" t="n">
-        <v>15.346</v>
+        <v>27.5</v>
       </c>
       <c r="E90" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F90" t="n">
-        <v>200000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2613,22 +2613,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>52.662</v>
+        <v>1.107</v>
       </c>
       <c r="D91" t="n">
-        <v>40.296</v>
+        <v>0.795</v>
       </c>
       <c r="E91" t="n">
-        <v>19</v>
+        <v>1120</v>
       </c>
       <c r="F91" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2637,22 +2637,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1.387</v>
+        <v>4073.531</v>
       </c>
       <c r="D92" t="n">
-        <v>1.151</v>
+        <v>2843.75</v>
       </c>
       <c r="E92" t="n">
-        <v>896</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2661,22 +2661,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>18570.041</v>
+        <v>34905.428</v>
       </c>
       <c r="D93" t="n">
-        <v>11312.5</v>
+        <v>22921.875</v>
       </c>
       <c r="E93" t="n">
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2685,22 +2685,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>54440.225</v>
+        <v>22.098</v>
       </c>
       <c r="D94" t="n">
-        <v>36187.5</v>
+        <v>10.324</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="F94" t="n">
-        <v>220000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2709,16 +2709,16 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>22.444</v>
+        <v>657.929</v>
       </c>
       <c r="D95" t="n">
-        <v>17.334</v>
+        <v>453.125</v>
       </c>
       <c r="E95" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
-        <v>220000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="96">
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>57.593</v>
+        <v>47.596</v>
       </c>
       <c r="D96" t="n">
-        <v>35.714</v>
+        <v>35.938</v>
       </c>
       <c r="E96" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F96" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="97">
@@ -2757,16 +2757,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1.581</v>
+        <v>1.249</v>
       </c>
       <c r="D97" t="n">
-        <v>1.196</v>
+        <v>0.841</v>
       </c>
       <c r="E97" t="n">
-        <v>640</v>
+        <v>929</v>
       </c>
       <c r="F97" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="98">
@@ -2781,16 +2781,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>21760.848</v>
+        <v>5002.783</v>
       </c>
       <c r="D98" t="n">
-        <v>13734.375</v>
+        <v>3828.125</v>
       </c>
       <c r="E98" t="n">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="99">
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>64844.856</v>
+        <v>43754.688</v>
       </c>
       <c r="D99" t="n">
-        <v>43031.25</v>
+        <v>26046.875</v>
       </c>
       <c r="E99" t="n">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="100">
@@ -2829,22 +2829,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>25.642</v>
+        <v>24.212</v>
       </c>
       <c r="D100" t="n">
-        <v>16.892</v>
+        <v>15.278</v>
       </c>
       <c r="E100" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F100" t="n">
-        <v>240000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2853,22 +2853,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>64.072</v>
+        <v>766.624</v>
       </c>
       <c r="D101" t="n">
-        <v>35.511</v>
+        <v>546.875</v>
       </c>
       <c r="E101" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2877,22 +2877,22 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2.008</v>
+        <v>52.769</v>
       </c>
       <c r="D102" t="n">
-        <v>0.609</v>
+        <v>33.053</v>
       </c>
       <c r="E102" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="F102" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2901,22 +2901,22 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>25585.284</v>
+        <v>1.364</v>
       </c>
       <c r="D103" t="n">
-        <v>19609.375</v>
+        <v>0.903</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>640</v>
       </c>
       <c r="F103" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2925,22 +2925,22 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>76127.546</v>
+        <v>6203.812</v>
       </c>
       <c r="D104" t="n">
-        <v>55046.875</v>
+        <v>3390.625</v>
       </c>
       <c r="E104" t="n">
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>27.227</v>
+        <v>53848.201</v>
       </c>
       <c r="D105" t="n">
-        <v>16.741</v>
+        <v>32421.875</v>
       </c>
       <c r="E105" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>260000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2973,22 +2973,22 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>67.965</v>
+        <v>26.583</v>
       </c>
       <c r="D106" t="n">
-        <v>34.926</v>
+        <v>15.625</v>
       </c>
       <c r="E106" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F106" t="n">
-        <v>280000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2997,22 +2997,22 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2.079</v>
+        <v>862.963</v>
       </c>
       <c r="D107" t="n">
-        <v>1.479</v>
+        <v>515.625</v>
       </c>
       <c r="E107" t="n">
-        <v>560</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3021,22 +3021,22 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>29410.329</v>
+        <v>58.918</v>
       </c>
       <c r="D108" t="n">
-        <v>19906.25</v>
+        <v>29.375</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F108" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3045,22 +3045,22 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>87716.349</v>
+        <v>1.558</v>
       </c>
       <c r="D109" t="n">
-        <v>60187.5</v>
+        <v>0.75</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F109" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3069,22 +3069,22 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>29.495</v>
+        <v>7308.974</v>
       </c>
       <c r="D110" t="n">
-        <v>17.983</v>
+        <v>3843.75</v>
       </c>
       <c r="E110" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>280000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3093,22 +3093,22 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>72.48699999999999</v>
+        <v>63340.329</v>
       </c>
       <c r="D111" t="n">
-        <v>43.945</v>
+        <v>37156.25</v>
       </c>
       <c r="E111" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2.234</v>
+        <v>29.634</v>
       </c>
       <c r="D112" t="n">
-        <v>1.221</v>
+        <v>18.555</v>
       </c>
       <c r="E112" t="n">
-        <v>448</v>
+        <v>64</v>
       </c>
       <c r="F112" t="n">
-        <v>300000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3141,22 +3141,22 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>34147.758</v>
+        <v>989.1</v>
       </c>
       <c r="D113" t="n">
-        <v>23218.75</v>
+        <v>515.625</v>
       </c>
       <c r="E113" t="n">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3165,22 +3165,22 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>100911.702</v>
+        <v>62.409</v>
       </c>
       <c r="D114" t="n">
-        <v>66890.625</v>
+        <v>35.807</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F114" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3189,22 +3189,22 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>31.509</v>
+        <v>1.632</v>
       </c>
       <c r="D115" t="n">
-        <v>20.833</v>
+        <v>0.837</v>
       </c>
       <c r="E115" t="n">
-        <v>30</v>
+        <v>747</v>
       </c>
       <c r="F115" t="n">
-        <v>300000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3213,22 +3213,22 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.186</v>
+        <v>8717.779</v>
       </c>
       <c r="D116" t="n">
-        <v>0.112</v>
+        <v>5250</v>
       </c>
       <c r="E116" t="n">
-        <v>5600</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>1000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3237,22 +3237,22 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.006</v>
+        <v>74039.319</v>
       </c>
       <c r="D117" t="n">
-        <v>0.004</v>
+        <v>43156.25</v>
       </c>
       <c r="E117" t="n">
-        <v>194783</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>1000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3261,22 +3261,22 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.409</v>
+        <v>31.704</v>
       </c>
       <c r="D118" t="n">
-        <v>0.213</v>
+        <v>15.625</v>
       </c>
       <c r="E118" t="n">
-        <v>2635</v>
+        <v>50</v>
       </c>
       <c r="F118" t="n">
-        <v>1000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3285,22 +3285,22 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1.128</v>
+        <v>1109.263</v>
       </c>
       <c r="D119" t="n">
-        <v>0.654</v>
+        <v>593.75</v>
       </c>
       <c r="E119" t="n">
-        <v>1338</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>1000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3309,22 +3309,22 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.047</v>
+        <v>68.306</v>
       </c>
       <c r="D120" t="n">
-        <v>0.03</v>
+        <v>34.375</v>
       </c>
       <c r="E120" t="n">
-        <v>29867</v>
+        <v>15</v>
       </c>
       <c r="F120" t="n">
-        <v>1000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3333,22 +3333,22 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.38</v>
+        <v>1.962</v>
       </c>
       <c r="D121" t="n">
-        <v>0.311</v>
+        <v>1.36</v>
       </c>
       <c r="E121" t="n">
-        <v>2358</v>
+        <v>448</v>
       </c>
       <c r="F121" t="n">
-        <v>2000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3357,22 +3357,22 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.012</v>
+        <v>9863.965</v>
       </c>
       <c r="D122" t="n">
-        <v>0.007</v>
+        <v>5500</v>
       </c>
       <c r="E122" t="n">
-        <v>74667</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>2000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3381,22 +3381,22 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1.608</v>
+        <v>84861.194</v>
       </c>
       <c r="D123" t="n">
-        <v>1.025</v>
+        <v>52546.875</v>
       </c>
       <c r="E123" t="n">
-        <v>640</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>2000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3405,22 +3405,22 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>4.469</v>
+        <v>34.671</v>
       </c>
       <c r="D124" t="n">
-        <v>2.49</v>
+        <v>19.531</v>
       </c>
       <c r="E124" t="n">
-        <v>320</v>
+        <v>32</v>
       </c>
       <c r="F124" t="n">
-        <v>2000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3429,16 +3429,16 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.111</v>
+        <v>1186.27</v>
       </c>
       <c r="D125" t="n">
-        <v>0.065</v>
+        <v>656.25</v>
       </c>
       <c r="E125" t="n">
-        <v>8960</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>2000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="126">
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.602</v>
+        <v>73.101</v>
       </c>
       <c r="D126" t="n">
-        <v>0.374</v>
+        <v>40.799</v>
       </c>
       <c r="E126" t="n">
-        <v>2133</v>
+        <v>18</v>
       </c>
       <c r="F126" t="n">
-        <v>3000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="127">
@@ -3477,16 +3477,16 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.018</v>
+        <v>2.108</v>
       </c>
       <c r="D127" t="n">
-        <v>0.013</v>
+        <v>1.067</v>
       </c>
       <c r="E127" t="n">
-        <v>56000</v>
+        <v>498</v>
       </c>
       <c r="F127" t="n">
-        <v>3000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="128">
@@ -3501,16 +3501,16 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3.491</v>
+        <v>11349.909</v>
       </c>
       <c r="D128" t="n">
-        <v>2.262</v>
+        <v>6843.75</v>
       </c>
       <c r="E128" t="n">
-        <v>373</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>3000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="129">
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>9.938000000000001</v>
+        <v>97781.83900000001</v>
       </c>
       <c r="D129" t="n">
-        <v>7.031</v>
+        <v>61484.375</v>
       </c>
       <c r="E129" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>3000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="130">
@@ -3549,22 +3549,22 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.18</v>
+        <v>37.277</v>
       </c>
       <c r="D130" t="n">
-        <v>0.106</v>
+        <v>22.917</v>
       </c>
       <c r="E130" t="n">
-        <v>7690</v>
+        <v>45</v>
       </c>
       <c r="F130" t="n">
-        <v>3000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3573,22 +3573,22 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.785</v>
+        <v>0.287</v>
       </c>
       <c r="D131" t="n">
-        <v>0.609</v>
+        <v>0.195</v>
       </c>
       <c r="E131" t="n">
+        <v>3446</v>
+      </c>
+      <c r="F131" t="n">
         <v>1000</v>
-      </c>
-      <c r="F131" t="n">
-        <v>4000</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3597,22 +3597,22 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.024</v>
+        <v>0.181</v>
       </c>
       <c r="D132" t="n">
-        <v>0.015</v>
+        <v>0.107</v>
       </c>
       <c r="E132" t="n">
-        <v>49778</v>
+        <v>4978</v>
       </c>
       <c r="F132" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3621,22 +3621,22 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>6.043</v>
+        <v>0.006</v>
       </c>
       <c r="D133" t="n">
-        <v>3.961</v>
+        <v>0.005</v>
       </c>
       <c r="E133" t="n">
-        <v>213</v>
+        <v>100000</v>
       </c>
       <c r="F133" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3645,22 +3645,22 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>18.193</v>
+        <v>0.193</v>
       </c>
       <c r="D134" t="n">
-        <v>12.5</v>
+        <v>0.151</v>
       </c>
       <c r="E134" t="n">
-        <v>50</v>
+        <v>6400</v>
       </c>
       <c r="F134" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3669,22 +3669,22 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.246</v>
+        <v>1.099</v>
       </c>
       <c r="D135" t="n">
-        <v>0.159</v>
+        <v>0.872</v>
       </c>
       <c r="E135" t="n">
-        <v>3733</v>
+        <v>896</v>
       </c>
       <c r="F135" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3693,22 +3693,22 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1.01</v>
+        <v>0.064</v>
       </c>
       <c r="D136" t="n">
-        <v>0.899</v>
+        <v>0.055</v>
       </c>
       <c r="E136" t="n">
-        <v>747</v>
+        <v>10000</v>
       </c>
       <c r="F136" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3717,22 +3717,22 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.03</v>
+        <v>0.794</v>
       </c>
       <c r="D137" t="n">
-        <v>0.02</v>
+        <v>0.614</v>
       </c>
       <c r="E137" t="n">
-        <v>29867</v>
+        <v>1120</v>
       </c>
       <c r="F137" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3741,22 +3741,22 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>9.695</v>
+        <v>0.377</v>
       </c>
       <c r="D138" t="n">
-        <v>6.25</v>
+        <v>0.335</v>
       </c>
       <c r="E138" t="n">
-        <v>90</v>
+        <v>2800</v>
       </c>
       <c r="F138" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3765,22 +3765,22 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>27.809</v>
+        <v>0.012</v>
       </c>
       <c r="D139" t="n">
-        <v>21.562</v>
+        <v>0.007</v>
       </c>
       <c r="E139" t="n">
-        <v>50</v>
+        <v>89600</v>
       </c>
       <c r="F139" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3789,22 +3789,22 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.33</v>
+        <v>0.672</v>
       </c>
       <c r="D140" t="n">
-        <v>0.162</v>
+        <v>0.508</v>
       </c>
       <c r="E140" t="n">
-        <v>5310</v>
+        <v>1600</v>
       </c>
       <c r="F140" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3813,22 +3813,22 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1.241</v>
+        <v>4.3</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9350000000000001</v>
+        <v>2.847</v>
       </c>
       <c r="E141" t="n">
-        <v>1120</v>
+        <v>236</v>
       </c>
       <c r="F141" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3837,22 +3837,22 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.036</v>
+        <v>0.15</v>
       </c>
       <c r="D142" t="n">
-        <v>0.023</v>
+        <v>0.092</v>
       </c>
       <c r="E142" t="n">
-        <v>26353</v>
+        <v>7467</v>
       </c>
       <c r="F142" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3861,22 +3861,22 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>15.2</v>
+        <v>1.439</v>
       </c>
       <c r="D143" t="n">
-        <v>8.958</v>
+        <v>0.984</v>
       </c>
       <c r="E143" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="F143" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3885,22 +3885,22 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>40.614</v>
+        <v>0.587</v>
       </c>
       <c r="D144" t="n">
-        <v>30.599</v>
+        <v>0.392</v>
       </c>
       <c r="E144" t="n">
-        <v>24</v>
+        <v>1792</v>
       </c>
       <c r="F144" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3909,22 +3909,22 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.397</v>
+        <v>0.017</v>
       </c>
       <c r="D145" t="n">
-        <v>0.239</v>
+        <v>0.013</v>
       </c>
       <c r="E145" t="n">
-        <v>2358</v>
+        <v>64000</v>
       </c>
       <c r="F145" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3933,22 +3933,22 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1.454</v>
+        <v>1.361</v>
       </c>
       <c r="D146" t="n">
-        <v>0.879</v>
+        <v>0.837</v>
       </c>
       <c r="E146" t="n">
         <v>747</v>
       </c>
       <c r="F146" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3957,22 +3957,22 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.042</v>
+        <v>9.614000000000001</v>
       </c>
       <c r="D147" t="n">
-        <v>0.028</v>
+        <v>6.138</v>
       </c>
       <c r="E147" t="n">
-        <v>23579</v>
+        <v>112</v>
       </c>
       <c r="F147" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3981,22 +3981,22 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>18.448</v>
+        <v>0.233</v>
       </c>
       <c r="D148" t="n">
-        <v>12.812</v>
+        <v>0.163</v>
       </c>
       <c r="E148" t="n">
-        <v>50</v>
+        <v>4614</v>
       </c>
       <c r="F148" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4005,22 +4005,22 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>54.906</v>
+        <v>2.1</v>
       </c>
       <c r="D149" t="n">
-        <v>35.714</v>
+        <v>1.507</v>
       </c>
       <c r="E149" t="n">
-        <v>21</v>
+        <v>560</v>
       </c>
       <c r="F149" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4029,22 +4029,22 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.468</v>
+        <v>0.783</v>
       </c>
       <c r="D150" t="n">
-        <v>0.3</v>
+        <v>0.61</v>
       </c>
       <c r="E150" t="n">
-        <v>2133</v>
+        <v>896</v>
       </c>
       <c r="F150" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4053,22 +4053,22 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1.626</v>
+        <v>0.023</v>
       </c>
       <c r="D151" t="n">
-        <v>1.318</v>
+        <v>0.016</v>
       </c>
       <c r="E151" t="n">
-        <v>498</v>
+        <v>44800</v>
       </c>
       <c r="F151" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4077,22 +4077,22 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.047</v>
+        <v>2.316</v>
       </c>
       <c r="D152" t="n">
-        <v>0.038</v>
+        <v>1.831</v>
       </c>
       <c r="E152" t="n">
-        <v>20364</v>
+        <v>512</v>
       </c>
       <c r="F152" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -4101,22 +4101,22 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>24.243</v>
+        <v>17.021</v>
       </c>
       <c r="D153" t="n">
-        <v>21.973</v>
+        <v>11.042</v>
       </c>
       <c r="E153" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F153" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4125,22 +4125,22 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>71.10599999999999</v>
+        <v>0.32</v>
       </c>
       <c r="D154" t="n">
-        <v>54.688</v>
+        <v>0.262</v>
       </c>
       <c r="E154" t="n">
-        <v>10</v>
+        <v>2800</v>
       </c>
       <c r="F154" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4149,16 +4149,16 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.542</v>
+        <v>2.964</v>
       </c>
       <c r="D155" t="n">
-        <v>0.384</v>
+        <v>2.404</v>
       </c>
       <c r="E155" t="n">
-        <v>1792</v>
+        <v>299</v>
       </c>
       <c r="F155" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="156">
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1.886</v>
+        <v>1.008</v>
       </c>
       <c r="D156" t="n">
-        <v>1.2</v>
+        <v>0.767</v>
       </c>
       <c r="E156" t="n">
         <v>1120</v>
       </c>
       <c r="F156" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="157">
@@ -4197,16 +4197,16 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.053</v>
+        <v>0.029</v>
       </c>
       <c r="D157" t="n">
-        <v>0.039</v>
+        <v>0.022</v>
       </c>
       <c r="E157" t="n">
-        <v>17920</v>
+        <v>28000</v>
       </c>
       <c r="F157" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="158">
@@ -4221,16 +4221,16 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>31.005</v>
+        <v>3.566</v>
       </c>
       <c r="D158" t="n">
-        <v>23.897</v>
+        <v>2.404</v>
       </c>
       <c r="E158" t="n">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c r="F158" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="159">
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>90.16800000000001</v>
+        <v>26.665</v>
       </c>
       <c r="D159" t="n">
-        <v>64.236</v>
+        <v>22.485</v>
       </c>
       <c r="E159" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F159" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="160">
@@ -4269,22 +4269,22 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.631</v>
+        <v>0.414</v>
       </c>
       <c r="D160" t="n">
-        <v>0.509</v>
+        <v>0.273</v>
       </c>
       <c r="E160" t="n">
-        <v>1659</v>
+        <v>1948</v>
       </c>
       <c r="F160" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4293,22 +4293,22 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2.094</v>
+        <v>3.775</v>
       </c>
       <c r="D161" t="n">
-        <v>1.883</v>
+        <v>2.715</v>
       </c>
       <c r="E161" t="n">
-        <v>448</v>
+        <v>236</v>
       </c>
       <c r="F161" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4317,22 +4317,22 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.062</v>
+        <v>1.217</v>
       </c>
       <c r="D162" t="n">
-        <v>0.042</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="E162" t="n">
-        <v>16000</v>
+        <v>747</v>
       </c>
       <c r="F162" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4341,22 +4341,22 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>37.531</v>
+        <v>0.035</v>
       </c>
       <c r="D163" t="n">
-        <v>28.409</v>
+        <v>0.025</v>
       </c>
       <c r="E163" t="n">
-        <v>22</v>
+        <v>32000</v>
       </c>
       <c r="F163" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4365,22 +4365,22 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>110.024</v>
+        <v>5.237</v>
       </c>
       <c r="D164" t="n">
-        <v>85.227</v>
+        <v>4.011</v>
       </c>
       <c r="E164" t="n">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="F164" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4389,22 +4389,22 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.717</v>
+        <v>38.528</v>
       </c>
       <c r="D165" t="n">
-        <v>0.531</v>
+        <v>23.438</v>
       </c>
       <c r="E165" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="F165" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4413,22 +4413,22 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.008</v>
+        <v>0.504</v>
       </c>
       <c r="D166" t="n">
-        <v>0.006</v>
+        <v>0.333</v>
       </c>
       <c r="E166" t="n">
-        <v>89600</v>
+        <v>2489</v>
       </c>
       <c r="F166" t="n">
-        <v>50</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4437,22 +4437,22 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>4.858</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>3.081</v>
       </c>
       <c r="E167" t="n">
-        <v>1866667</v>
+        <v>213</v>
       </c>
       <c r="F167" t="n">
-        <v>50</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4461,22 +4461,22 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.002</v>
+        <v>1.411</v>
       </c>
       <c r="D168" t="n">
-        <v>0.002</v>
+        <v>0.931</v>
       </c>
       <c r="E168" t="n">
-        <v>344615</v>
+        <v>772</v>
       </c>
       <c r="F168" t="n">
-        <v>50</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4485,22 +4485,22 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.003</v>
+        <v>0.04</v>
       </c>
       <c r="D169" t="n">
-        <v>0.002</v>
+        <v>0.027</v>
       </c>
       <c r="E169" t="n">
-        <v>280000</v>
+        <v>29867</v>
       </c>
       <c r="F169" t="n">
-        <v>50</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4509,22 +4509,22 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.002</v>
+        <v>6.822</v>
       </c>
       <c r="D170" t="n">
-        <v>0.001</v>
+        <v>5.243</v>
       </c>
       <c r="E170" t="n">
-        <v>497778</v>
+        <v>149</v>
       </c>
       <c r="F170" t="n">
-        <v>50</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4533,22 +4533,22 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.016</v>
+        <v>52.913</v>
       </c>
       <c r="D171" t="n">
-        <v>0.012</v>
+        <v>30.649</v>
       </c>
       <c r="E171" t="n">
-        <v>56000</v>
+        <v>26</v>
       </c>
       <c r="F171" t="n">
-        <v>100</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4557,22 +4557,22 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.001</v>
+        <v>0.606</v>
       </c>
       <c r="D172" t="n">
-        <v>0.001</v>
+        <v>0.352</v>
       </c>
       <c r="E172" t="n">
-        <v>1000000</v>
+        <v>1600</v>
       </c>
       <c r="F172" t="n">
-        <v>100</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4581,22 +4581,22 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.007</v>
+        <v>5.698</v>
       </c>
       <c r="D173" t="n">
-        <v>0.005</v>
+        <v>3.14</v>
       </c>
       <c r="E173" t="n">
-        <v>100000</v>
+        <v>209</v>
       </c>
       <c r="F173" t="n">
-        <v>100</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4605,22 +4605,22 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.012</v>
+        <v>1.637</v>
       </c>
       <c r="D174" t="n">
-        <v>0.008</v>
+        <v>0.875</v>
       </c>
       <c r="E174" t="n">
-        <v>64000</v>
+        <v>1000</v>
       </c>
       <c r="F174" t="n">
-        <v>100</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4629,22 +4629,22 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.004</v>
+        <v>0.046</v>
       </c>
       <c r="D175" t="n">
-        <v>0.003</v>
+        <v>0.026</v>
       </c>
       <c r="E175" t="n">
-        <v>248889</v>
+        <v>22400</v>
       </c>
       <c r="F175" t="n">
-        <v>100</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4653,22 +4653,22 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.025</v>
+        <v>8.68</v>
       </c>
       <c r="D176" t="n">
-        <v>0.02</v>
+        <v>4.464</v>
       </c>
       <c r="E176" t="n">
-        <v>49778</v>
+        <v>112</v>
       </c>
       <c r="F176" t="n">
-        <v>150</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4677,22 +4677,22 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.001</v>
+        <v>68.52</v>
       </c>
       <c r="D177" t="n">
-        <v>0.001</v>
+        <v>35.59</v>
       </c>
       <c r="E177" t="n">
-        <v>1120000</v>
+        <v>18</v>
       </c>
       <c r="F177" t="n">
-        <v>150</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.015</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="D178" t="n">
-        <v>0.011</v>
+        <v>0.42</v>
       </c>
       <c r="E178" t="n">
-        <v>56000</v>
+        <v>1600</v>
       </c>
       <c r="F178" t="n">
-        <v>150</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4725,22 +4725,22 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.027</v>
+        <v>6.853</v>
       </c>
       <c r="D179" t="n">
-        <v>0.019</v>
+        <v>4.464</v>
       </c>
       <c r="E179" t="n">
-        <v>34462</v>
+        <v>112</v>
       </c>
       <c r="F179" t="n">
-        <v>150</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4749,22 +4749,22 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.006</v>
+        <v>1.859</v>
       </c>
       <c r="D180" t="n">
-        <v>0.004</v>
+        <v>1.156</v>
       </c>
       <c r="E180" t="n">
-        <v>154483</v>
+        <v>1000</v>
       </c>
       <c r="F180" t="n">
-        <v>150</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4773,22 +4773,22 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.033</v>
+        <v>0.052</v>
       </c>
       <c r="D181" t="n">
-        <v>0.026</v>
+        <v>0.028</v>
       </c>
       <c r="E181" t="n">
-        <v>26353</v>
+        <v>28000</v>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4797,22 +4797,22 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.001</v>
+        <v>11.119</v>
       </c>
       <c r="D182" t="n">
-        <v>0.001</v>
+        <v>6.557</v>
       </c>
       <c r="E182" t="n">
-        <v>896000</v>
+        <v>112</v>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4821,22 +4821,22 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.021</v>
+        <v>86.98699999999999</v>
       </c>
       <c r="D183" t="n">
-        <v>0.013</v>
+        <v>50</v>
       </c>
       <c r="E183" t="n">
-        <v>49778</v>
+        <v>10</v>
       </c>
       <c r="F183" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4845,22 +4845,22 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.046</v>
+        <v>0.804</v>
       </c>
       <c r="D184" t="n">
-        <v>0.039</v>
+        <v>0.53</v>
       </c>
       <c r="E184" t="n">
-        <v>19478</v>
+        <v>1445</v>
       </c>
       <c r="F184" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4869,16 +4869,16 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.007</v>
+        <v>8.132</v>
       </c>
       <c r="D185" t="n">
-        <v>0.005</v>
+        <v>5.625</v>
       </c>
       <c r="E185" t="n">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="F185" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="186">
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.042</v>
+        <v>2.079</v>
       </c>
       <c r="D186" t="n">
-        <v>0.031</v>
+        <v>1.562</v>
       </c>
       <c r="E186" t="n">
-        <v>19478</v>
+        <v>640</v>
       </c>
       <c r="F186" t="n">
-        <v>250</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="187">
@@ -4917,16 +4917,16 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.002</v>
+        <v>0.057</v>
       </c>
       <c r="D187" t="n">
-        <v>0.001</v>
+        <v>0.036</v>
       </c>
       <c r="E187" t="n">
-        <v>746667</v>
+        <v>19478</v>
       </c>
       <c r="F187" t="n">
-        <v>250</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="188">
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.033</v>
+        <v>13.393</v>
       </c>
       <c r="D188" t="n">
-        <v>0.027</v>
+        <v>7.639</v>
       </c>
       <c r="E188" t="n">
-        <v>29867</v>
+        <v>90</v>
       </c>
       <c r="F188" t="n">
-        <v>250</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="189">
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.07000000000000001</v>
+        <v>107.687</v>
       </c>
       <c r="D189" t="n">
-        <v>0.06</v>
+        <v>59.375</v>
       </c>
       <c r="E189" t="n">
-        <v>11200</v>
+        <v>10</v>
       </c>
       <c r="F189" t="n">
-        <v>250</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="190">
@@ -4989,22 +4989,22 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.893</v>
       </c>
       <c r="D190" t="n">
-        <v>0.007</v>
+        <v>0.61</v>
       </c>
       <c r="E190" t="n">
-        <v>74667</v>
+        <v>896</v>
       </c>
       <c r="F190" t="n">
-        <v>250</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -5013,22 +5013,22 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.053</v>
+        <v>0.005</v>
       </c>
       <c r="D191" t="n">
-        <v>0.042</v>
+        <v>0.002</v>
       </c>
       <c r="E191" t="n">
-        <v>31221</v>
+        <v>263529</v>
       </c>
       <c r="F191" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -5037,22 +5037,22 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
       <c r="D192" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E192" t="n">
-        <v>448000</v>
+        <v>165926</v>
       </c>
       <c r="F192" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -5061,22 +5061,22 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.046</v>
+        <v>0</v>
       </c>
       <c r="D193" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>24889</v>
+        <v>2357895</v>
       </c>
       <c r="F193" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -5085,22 +5085,22 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.101</v>
+        <v>0.002</v>
       </c>
       <c r="D194" t="n">
-        <v>0.073</v>
+        <v>0.001</v>
       </c>
       <c r="E194" t="n">
-        <v>10000</v>
+        <v>647432</v>
       </c>
       <c r="F194" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -5109,22 +5109,22 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.012</v>
+        <v>0.003</v>
       </c>
       <c r="D195" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="E195" t="n">
-        <v>74667</v>
+        <v>344615</v>
       </c>
       <c r="F195" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -5133,22 +5133,22 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.061</v>
+        <v>0.002</v>
       </c>
       <c r="D196" t="n">
-        <v>0.052</v>
+        <v>0.001</v>
       </c>
       <c r="E196" t="n">
-        <v>11200</v>
+        <v>640000</v>
       </c>
       <c r="F196" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -5157,22 +5157,22 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.002</v>
+        <v>0.012</v>
       </c>
       <c r="D197" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="E197" t="n">
-        <v>373333</v>
+        <v>89600</v>
       </c>
       <c r="F197" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -5181,22 +5181,22 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.06</v>
+        <v>0.016</v>
       </c>
       <c r="D198" t="n">
-        <v>0.05</v>
+        <v>0.011</v>
       </c>
       <c r="E198" t="n">
-        <v>14933</v>
+        <v>56000</v>
       </c>
       <c r="F198" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -5205,22 +5205,22 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.138</v>
+        <v>0.001</v>
       </c>
       <c r="D199" t="n">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="E199" t="n">
-        <v>7467</v>
+        <v>1600000</v>
       </c>
       <c r="F199" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -5229,22 +5229,22 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.014</v>
+        <v>0.005</v>
       </c>
       <c r="D200" t="n">
-        <v>0.012</v>
+        <v>0.003</v>
       </c>
       <c r="E200" t="n">
-        <v>56000</v>
+        <v>280000</v>
       </c>
       <c r="F200" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -5253,22 +5253,22 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.011</v>
       </c>
       <c r="D201" t="n">
-        <v>0.056</v>
+        <v>0.007</v>
       </c>
       <c r="E201" t="n">
-        <v>15448</v>
+        <v>112000</v>
       </c>
       <c r="F201" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -5277,22 +5277,22 @@
         </is>
       </c>
       <c r="C202" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D202" t="n">
         <v>0.003</v>
       </c>
-      <c r="D202" t="n">
-        <v>0.002</v>
-      </c>
       <c r="E202" t="n">
-        <v>407273</v>
+        <v>203636</v>
       </c>
       <c r="F202" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.074</v>
+        <v>0.022</v>
       </c>
       <c r="D203" t="n">
-        <v>0.053</v>
+        <v>0.014</v>
       </c>
       <c r="E203" t="n">
-        <v>16056</v>
+        <v>64000</v>
       </c>
       <c r="F203" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -5325,22 +5325,22 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.179</v>
+        <v>0.024</v>
       </c>
       <c r="D204" t="n">
-        <v>0.142</v>
+        <v>0.012</v>
       </c>
       <c r="E204" t="n">
-        <v>11200</v>
+        <v>55139</v>
       </c>
       <c r="F204" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -5349,22 +5349,22 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0.016</v>
+        <v>0.001</v>
       </c>
       <c r="D205" t="n">
-        <v>0.013</v>
+        <v>0.001</v>
       </c>
       <c r="E205" t="n">
-        <v>74667</v>
+        <v>1120000</v>
       </c>
       <c r="F205" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -5373,22 +5373,22 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0.078</v>
+        <v>0.01</v>
       </c>
       <c r="D206" t="n">
-        <v>0.065</v>
+        <v>0.005</v>
       </c>
       <c r="E206" t="n">
-        <v>8960</v>
+        <v>100000</v>
       </c>
       <c r="F206" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -5397,22 +5397,22 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0.003</v>
+        <v>0.025</v>
       </c>
       <c r="D207" t="n">
-        <v>0.002</v>
+        <v>0.012</v>
       </c>
       <c r="E207" t="n">
-        <v>248889</v>
+        <v>49778</v>
       </c>
       <c r="F207" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -5421,22 +5421,22 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0.089</v>
+        <v>0.007</v>
       </c>
       <c r="D208" t="n">
-        <v>0.059</v>
+        <v>0.003</v>
       </c>
       <c r="E208" t="n">
-        <v>11151</v>
+        <v>165926</v>
       </c>
       <c r="F208" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>LibrarySort</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -5445,22 +5445,22 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0.225</v>
+        <v>0.03</v>
       </c>
       <c r="D209" t="n">
-        <v>0.163</v>
+        <v>0.022</v>
       </c>
       <c r="E209" t="n">
-        <v>4978</v>
+        <v>40727</v>
       </c>
       <c r="F209" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>TimSort</t>
+          <t>MergeSort</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -5469,22 +5469,22 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0.018</v>
+        <v>0.033</v>
       </c>
       <c r="D210" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="E210" t="n">
-        <v>37333</v>
+        <v>40727</v>
       </c>
       <c r="F210" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>MergeSort</t>
+          <t>CountingSort</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -5493,22 +5493,22 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="D211" t="n">
-        <v>0.068</v>
+        <v>0.001</v>
       </c>
       <c r="E211" t="n">
-        <v>8960</v>
+        <v>1115023</v>
       </c>
       <c r="F211" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>CountingSort</t>
+          <t>InsertionSort</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5517,22 +5517,22 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0.003</v>
+        <v>0.014</v>
       </c>
       <c r="D212" t="n">
-        <v>0.003</v>
+        <v>0.01</v>
       </c>
       <c r="E212" t="n">
-        <v>373333</v>
+        <v>89600</v>
       </c>
       <c r="F212" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>InsertionSort</t>
+          <t>BubbleSort</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.112</v>
+        <v>0.043</v>
       </c>
       <c r="D213" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="E213" t="n">
-        <v>6400</v>
+        <v>32000</v>
       </c>
       <c r="F213" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>BubbleSort</t>
+          <t>TimSort</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -5565,39 +5565,879 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0.277</v>
+        <v>0.01</v>
       </c>
       <c r="D214" t="n">
-        <v>0.239</v>
+        <v>0.006</v>
       </c>
       <c r="E214" t="n">
-        <v>3200</v>
+        <v>112000</v>
       </c>
       <c r="F214" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
+          <t>LibrarySort</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="E215" t="n">
+        <v>32000</v>
+      </c>
+      <c r="F215" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E216" t="n">
+        <v>26353</v>
+      </c>
+      <c r="F216" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E217" t="n">
+        <v>640000</v>
+      </c>
+      <c r="F217" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E218" t="n">
+        <v>64000</v>
+      </c>
+      <c r="F218" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="E219" t="n">
+        <v>16186</v>
+      </c>
+      <c r="F219" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
           <t>TimSort</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>int_uniform</t>
-        </is>
-      </c>
-      <c r="C215" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D215" t="n">
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E220" t="n">
+        <v>89600</v>
+      </c>
+      <c r="F220" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>LibrarySort</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E221" t="n">
+        <v>24889</v>
+      </c>
+      <c r="F221" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="E222" t="n">
+        <v>22400</v>
+      </c>
+      <c r="F222" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E223" t="n">
+        <v>746667</v>
+      </c>
+      <c r="F223" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E224" t="n">
+        <v>49778</v>
+      </c>
+      <c r="F224" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="E225" t="n">
+        <v>16186</v>
+      </c>
+      <c r="F225" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
         <v>0.015</v>
       </c>
-      <c r="E215" t="n">
-        <v>37333</v>
-      </c>
-      <c r="F215" t="n">
+      <c r="D226" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="E226" t="n">
+        <v>74667</v>
+      </c>
+      <c r="F226" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>LibrarySort</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="E227" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F227" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="E228" t="n">
+        <v>17231</v>
+      </c>
+      <c r="F228" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E229" t="n">
+        <v>746667</v>
+      </c>
+      <c r="F229" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="E230" t="n">
+        <v>28000</v>
+      </c>
+      <c r="F230" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="E231" t="n">
+        <v>7467</v>
+      </c>
+      <c r="F231" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E232" t="n">
+        <v>74667</v>
+      </c>
+      <c r="F232" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>LibrarySort</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="E233" t="n">
+        <v>11200</v>
+      </c>
+      <c r="F233" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E234" t="n">
+        <v>20364</v>
+      </c>
+      <c r="F234" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E235" t="n">
+        <v>560000</v>
+      </c>
+      <c r="F235" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E236" t="n">
+        <v>34462</v>
+      </c>
+      <c r="F236" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="E237" t="n">
+        <v>6400</v>
+      </c>
+      <c r="F237" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E238" t="n">
+        <v>56000</v>
+      </c>
+      <c r="F238" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>LibrarySort</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="E239" t="n">
+        <v>15206</v>
+      </c>
+      <c r="F239" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="E240" t="n">
+        <v>11200</v>
+      </c>
+      <c r="F240" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E241" t="n">
+        <v>497778</v>
+      </c>
+      <c r="F241" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="E242" t="n">
+        <v>23579</v>
+      </c>
+      <c r="F242" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="E243" t="n">
+        <v>6921</v>
+      </c>
+      <c r="F243" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E244" t="n">
+        <v>49778</v>
+      </c>
+      <c r="F244" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>LibrarySort</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="E245" t="n">
+        <v>10240</v>
+      </c>
+      <c r="F245" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>MergeSort</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="E246" t="n">
+        <v>16186</v>
+      </c>
+      <c r="F246" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>CountingSort</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E247" t="n">
+        <v>344615</v>
+      </c>
+      <c r="F247" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>InsertionSort</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="E248" t="n">
+        <v>17920</v>
+      </c>
+      <c r="F248" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>BubbleSort</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="E249" t="n">
+        <v>4978</v>
+      </c>
+      <c r="F249" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>TimSort</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>int_uniform</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E250" t="n">
+        <v>56000</v>
+      </c>
+      <c r="F250" t="n">
         <v>500</v>
       </c>
     </row>
